--- a/replication_package/2_Quality_Model_Formalization.xlsx
+++ b/replication_package/2_Quality_Model_Formalization.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwstaff-my.sharepoint.com/personal/patrick_beyersdorffer_bwstaff_de/Documents/ANUKI - Forschungsprojekt/1 - Requirement Metrics/Req Quality Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwstaff-my.sharepoint.com/personal/patrick_beyersdorffer_bwstaff_de/Documents/ANUKI - Forschungsprojekt/1 - Requirement Metrics/AQM-Interaction/replication_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{729AA76D-51D2-442C-B624-3AFFAEF818C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C18709-BCCE-4458-8AA0-EAAE0367D95A}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{729AA76D-51D2-442C-B624-3AFFAEF818C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0671D6E-3B50-472C-9E55-45A0F1DA8A7C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3546B736-0F13-4782-A31F-B7A23E7A593C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{3546B736-0F13-4782-A31F-B7A23E7A593C}"/>
   </bookViews>
   <sheets>
     <sheet name="QualityCharacteristics Descript" sheetId="1" r:id="rId1"/>
     <sheet name="QualityCharacteristics Results" sheetId="5" r:id="rId2"/>
     <sheet name="Measurement Goals Description" sheetId="3" r:id="rId3"/>
     <sheet name="Measurement Goals Results" sheetId="6" r:id="rId4"/>
-    <sheet name="Equivalence Check" sheetId="7" r:id="rId5"/>
+    <sheet name="Equivalence Examination" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3856,8 +3856,32 @@
     </r>
   </si>
   <si>
+    <t>[ECSS-Q-HB-80-04C]</t>
+  </si>
+  <si>
+    <t>[Bel12]_Q10_M</t>
+  </si>
+  <si>
+    <t>[Bel12]_Q11_M</t>
+  </si>
+  <si>
+    <t>[Bel12]_Q12_M</t>
+  </si>
+  <si>
+    <t>[Bel12]_Q13_M</t>
+  </si>
+  <si>
+    <t>[Bel12]_Q14_M</t>
+  </si>
+  <si>
+    <t>[Bel12]_Q15_M</t>
+  </si>
+  <si>
+    <t>[Bel12]_Q16_M</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Variation factors Influence constructs with a quality focus. For example, the development effort […] is part of the quality focus of the model and the domain or developers' experiences is a variation factor that influences this concept of interest. [KHMT09]. </t>
+      <t xml:space="preserve">Variation factors influence constructs with a quality focus. For example, the development effort […] is part of the quality focus of the model and the domain or developers' experiences is a variation factor that influences this concept of interest. [KHMT09]. </t>
     </r>
     <r>
       <rPr>
@@ -3868,32 +3892,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Link to Enviornment / Context of the Measurement Goal.</t>
+      <t>Link to Environment / Context of the Measurement Goal.</t>
     </r>
-  </si>
-  <si>
-    <t>[ECSS-Q-HB-80-04C]</t>
-  </si>
-  <si>
-    <t>[Bel12]_Q10_M</t>
-  </si>
-  <si>
-    <t>[Bel12]_Q11_M</t>
-  </si>
-  <si>
-    <t>[Bel12]_Q12_M</t>
-  </si>
-  <si>
-    <t>[Bel12]_Q13_M</t>
-  </si>
-  <si>
-    <t>[Bel12]_Q14_M</t>
-  </si>
-  <si>
-    <t>[Bel12]_Q15_M</t>
-  </si>
-  <si>
-    <t>[Bel12]_Q16_M</t>
   </si>
 </sst>
 </file>
@@ -3933,7 +3933,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3976,12 +3976,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3995,7 +3989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4057,9 +4051,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4379,28 +4370,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F0CAF2-D3D0-4AA0-8F7A-B0548F68B494}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A13" zoomScale="103" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="54.88671875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="38.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="41.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="38.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="38" style="2" customWidth="1"/>
-    <col min="12" max="12" width="37.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="26.6640625" customWidth="1"/>
-    <col min="14" max="14" width="33.33203125" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="37.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" customWidth="1"/>
+    <col min="14" max="14" width="33.28515625" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -4450,7 +4441,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
@@ -4473,7 +4464,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>11</v>
@@ -4494,7 +4485,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
@@ -4509,7 +4500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
         <v>36</v>
       </c>
@@ -4523,7 +4514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
@@ -4537,7 +4528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
@@ -4554,7 +4545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="E8" s="3" t="s">
         <v>39</v>
       </c>
@@ -4571,7 +4562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
@@ -4597,7 +4588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
@@ -4623,7 +4614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
@@ -4646,7 +4637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="E12" s="3" t="s">
         <v>43</v>
       </c>
@@ -4669,7 +4660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="J15" s="11" t="s">
         <v>18</v>
       </c>
@@ -4684,32 +4675,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BA0B0A-5C6B-4891-9CD4-8434B7CD771E}">
   <dimension ref="A1:P167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="38.109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="39.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="40.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="41.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="38.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="40.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="38" style="2" customWidth="1"/>
-    <col min="12" max="12" width="37.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="37.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -4759,9 +4750,9 @@
         <v>904</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>103</v>
@@ -4772,7 +4763,7 @@
       <c r="D2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -4795,9 +4786,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
@@ -4808,7 +4799,7 @@
       <c r="D3" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -4831,9 +4822,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>45</v>
@@ -4844,7 +4835,7 @@
       <c r="D4" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -4867,9 +4858,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="216" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>182</v>
@@ -4880,7 +4871,7 @@
       <c r="D5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -4899,9 +4890,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>213</v>
@@ -4912,7 +4903,7 @@
       <c r="D6" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -4931,9 +4922,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>238</v>
@@ -4944,7 +4935,7 @@
       <c r="D7" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -4964,9 +4955,9 @@
         <v>908</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>265</v>
@@ -4977,7 +4968,7 @@
       <c r="D8" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -4996,7 +4987,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>960</v>
       </c>
@@ -5009,7 +5000,7 @@
       <c r="D9" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="4" t="s">
         <v>619</v>
       </c>
@@ -5026,7 +5017,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>620</v>
       </c>
@@ -5058,7 +5049,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>545</v>
       </c>
@@ -5090,7 +5081,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>547</v>
       </c>
@@ -5122,7 +5113,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="216" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>550</v>
       </c>
@@ -5154,7 +5145,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="285" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>552</v>
       </c>
@@ -5180,7 +5171,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>555</v>
       </c>
@@ -5212,7 +5203,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>559</v>
       </c>
@@ -5244,7 +5235,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>561</v>
       </c>
@@ -5276,7 +5267,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>565</v>
       </c>
@@ -5308,7 +5299,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>568</v>
       </c>
@@ -5340,7 +5331,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>572</v>
       </c>
@@ -5372,7 +5363,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>578</v>
       </c>
@@ -5401,7 +5392,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>581</v>
       </c>
@@ -5430,7 +5421,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>584</v>
       </c>
@@ -5459,7 +5450,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>588</v>
       </c>
@@ -5491,7 +5482,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>592</v>
       </c>
@@ -5523,7 +5514,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>596</v>
       </c>
@@ -5555,7 +5546,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>599</v>
       </c>
@@ -5587,7 +5578,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="216" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="240" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>603</v>
       </c>
@@ -5619,7 +5610,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>606</v>
       </c>
@@ -5648,7 +5639,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>609</v>
       </c>
@@ -5680,7 +5671,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>613</v>
       </c>
@@ -5709,7 +5700,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>54</v>
       </c>
@@ -5720,7 +5711,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>31</v>
@@ -5735,7 +5726,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>55</v>
       </c>
@@ -5746,7 +5737,7 @@
         <v>46</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>47</v>
@@ -5764,7 +5755,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>56</v>
       </c>
@@ -5775,7 +5766,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>47</v>
@@ -5800,7 +5791,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>70</v>
       </c>
@@ -5811,7 +5802,7 @@
         <v>66</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>51</v>
@@ -5827,7 +5818,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>69</v>
       </c>
@@ -5838,7 +5829,7 @@
         <v>83</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>51</v>
@@ -5854,7 +5845,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>71</v>
       </c>
@@ -5865,7 +5856,7 @@
         <v>85</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>51</v>
@@ -5881,7 +5872,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>90</v>
       </c>
@@ -5892,7 +5883,7 @@
         <v>84</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>47</v>
@@ -5918,7 +5909,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>73</v>
       </c>
@@ -5929,7 +5920,7 @@
         <v>86</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>51</v>
@@ -5948,7 +5939,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>101</v>
       </c>
@@ -5959,7 +5950,7 @@
         <v>87</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>47</v>
@@ -5984,7 +5975,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>624</v>
       </c>
@@ -6016,7 +6007,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="288" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="330" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>629</v>
       </c>
@@ -6048,7 +6039,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>632</v>
       </c>
@@ -6080,7 +6071,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>634</v>
       </c>
@@ -6112,7 +6103,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>636</v>
       </c>
@@ -6144,7 +6135,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>639</v>
       </c>
@@ -6176,7 +6167,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>642</v>
       </c>
@@ -6208,7 +6199,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>644</v>
       </c>
@@ -6240,7 +6231,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>646</v>
       </c>
@@ -6272,7 +6263,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="270" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>649</v>
       </c>
@@ -6304,7 +6295,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>651</v>
       </c>
@@ -6336,7 +6327,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>653</v>
       </c>
@@ -6368,7 +6359,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>655</v>
       </c>
@@ -6400,7 +6391,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>658</v>
       </c>
@@ -6432,7 +6423,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>291</v>
       </c>
@@ -6458,7 +6449,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>295</v>
       </c>
@@ -6484,7 +6475,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>293</v>
       </c>
@@ -6510,7 +6501,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>300</v>
       </c>
@@ -6536,7 +6527,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>307</v>
       </c>
@@ -6562,7 +6553,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>308</v>
       </c>
@@ -6585,7 +6576,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>309</v>
       </c>
@@ -6611,7 +6602,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>310</v>
       </c>
@@ -6637,7 +6628,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>311</v>
       </c>
@@ -6663,7 +6654,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>312</v>
       </c>
@@ -6686,7 +6677,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>313</v>
       </c>
@@ -6709,7 +6700,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>314</v>
       </c>
@@ -6732,7 +6723,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>315</v>
       </c>
@@ -6758,7 +6749,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>328</v>
       </c>
@@ -6778,7 +6769,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>332</v>
       </c>
@@ -6798,7 +6789,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>336</v>
       </c>
@@ -6818,7 +6809,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>341</v>
       </c>
@@ -6838,7 +6829,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="144" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>345</v>
       </c>
@@ -6858,7 +6849,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>344</v>
       </c>
@@ -6878,7 +6869,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>355</v>
       </c>
@@ -6895,7 +6886,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>356</v>
       </c>
@@ -6915,7 +6906,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>361</v>
       </c>
@@ -6935,7 +6926,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>362</v>
       </c>
@@ -6955,7 +6946,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>368</v>
       </c>
@@ -6993,7 +6984,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>383</v>
       </c>
@@ -7028,7 +7019,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>371</v>
       </c>
@@ -7066,7 +7057,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>372</v>
       </c>
@@ -7104,7 +7095,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>384</v>
       </c>
@@ -7130,7 +7121,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>385</v>
       </c>
@@ -7156,7 +7147,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>386</v>
       </c>
@@ -7191,7 +7182,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>387</v>
       </c>
@@ -7217,7 +7208,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>388</v>
       </c>
@@ -7243,7 +7234,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>389</v>
       </c>
@@ -7269,7 +7260,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>390</v>
       </c>
@@ -7304,7 +7295,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>391</v>
       </c>
@@ -7339,7 +7330,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>427</v>
       </c>
@@ -7371,7 +7362,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>428</v>
       </c>
@@ -7406,7 +7397,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>429</v>
       </c>
@@ -7438,7 +7429,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>430</v>
       </c>
@@ -7461,7 +7452,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>438</v>
       </c>
@@ -7493,7 +7484,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>439</v>
       </c>
@@ -7525,7 +7516,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>443</v>
       </c>
@@ -7560,7 +7551,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>447</v>
       </c>
@@ -7592,7 +7583,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>448</v>
       </c>
@@ -7615,7 +7606,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>449</v>
       </c>
@@ -7647,7 +7638,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>450</v>
       </c>
@@ -7673,7 +7664,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>451</v>
       </c>
@@ -7696,7 +7687,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>452</v>
       </c>
@@ -7719,7 +7710,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" ht="225" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>477</v>
       </c>
@@ -7751,7 +7742,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>481</v>
       </c>
@@ -7786,7 +7777,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>482</v>
       </c>
@@ -7818,7 +7809,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>487</v>
       </c>
@@ -7841,7 +7832,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>488</v>
       </c>
@@ -7873,7 +7864,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>489</v>
       </c>
@@ -7905,7 +7896,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>502</v>
       </c>
@@ -7937,7 +7928,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>505</v>
       </c>
@@ -7969,7 +7960,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>509</v>
       </c>
@@ -8001,7 +7992,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>510</v>
       </c>
@@ -8033,7 +8024,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>519</v>
       </c>
@@ -8065,7 +8056,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>523</v>
       </c>
@@ -8088,7 +8079,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>524</v>
       </c>
@@ -8114,7 +8105,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>533</v>
       </c>
@@ -8146,7 +8137,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>667</v>
       </c>
@@ -8181,7 +8172,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>666</v>
       </c>
@@ -8216,7 +8207,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>669</v>
       </c>
@@ -8251,7 +8242,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>671</v>
       </c>
@@ -8286,7 +8277,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>673</v>
       </c>
@@ -8321,7 +8312,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>676</v>
       </c>
@@ -8356,7 +8347,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>679</v>
       </c>
@@ -8391,7 +8382,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>682</v>
       </c>
@@ -8426,7 +8417,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>684</v>
       </c>
@@ -8461,7 +8452,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>687</v>
       </c>
@@ -8496,7 +8487,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>700</v>
       </c>
@@ -8528,7 +8519,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>703</v>
       </c>
@@ -8560,7 +8551,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>705</v>
       </c>
@@ -8592,7 +8583,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>704</v>
       </c>
@@ -8624,7 +8615,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>711</v>
       </c>
@@ -8656,7 +8647,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
         <v>713</v>
       </c>
@@ -8688,7 +8679,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>712</v>
       </c>
@@ -8720,7 +8711,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>722</v>
       </c>
@@ -8752,7 +8743,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>749</v>
       </c>
@@ -8778,7 +8769,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>726</v>
       </c>
@@ -8810,7 +8801,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>729</v>
       </c>
@@ -8836,7 +8827,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>734</v>
       </c>
@@ -8862,7 +8853,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>735</v>
       </c>
@@ -8888,7 +8879,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
         <v>737</v>
       </c>
@@ -8911,7 +8902,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>740</v>
       </c>
@@ -8937,7 +8928,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="285" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
         <v>742</v>
       </c>
@@ -8963,7 +8954,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
         <v>744</v>
       </c>
@@ -8989,7 +8980,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
         <v>751</v>
       </c>
@@ -9015,7 +9006,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
         <v>752</v>
       </c>
@@ -9041,7 +9032,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
         <v>753</v>
       </c>
@@ -9067,7 +9058,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>756</v>
       </c>
@@ -9093,7 +9084,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>757</v>
       </c>
@@ -9119,7 +9110,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
         <v>758</v>
       </c>
@@ -9145,7 +9136,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
         <v>764</v>
       </c>
@@ -9171,7 +9162,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>765</v>
       </c>
@@ -9197,7 +9188,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
         <v>766</v>
       </c>
@@ -9223,7 +9214,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
         <v>767</v>
       </c>
@@ -9249,7 +9240,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
         <v>768</v>
       </c>
@@ -9272,7 +9263,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>769</v>
       </c>
@@ -9298,7 +9289,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="13"/>
     </row>
   </sheetData>
@@ -9314,24 +9305,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E23415D-DAC4-4939-ABC5-0CDBC084C2F1}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="42.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -9359,7 +9350,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>19</v>
       </c>
@@ -9392,27 +9383,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F1B2A-76C9-4ADB-ADD3-C1FB76624DA1}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
+      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="46.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="42.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9440,7 +9431,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>106</v>
       </c>
@@ -9465,7 +9456,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>122</v>
       </c>
@@ -9489,7 +9480,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>123</v>
       </c>
@@ -9512,7 +9503,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>124</v>
       </c>
@@ -9536,7 +9527,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>125</v>
       </c>
@@ -9560,7 +9551,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>126</v>
       </c>
@@ -9584,7 +9575,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>127</v>
       </c>
@@ -9607,7 +9598,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>128</v>
       </c>
@@ -9630,7 +9621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
@@ -9653,7 +9644,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>131</v>
       </c>
@@ -9676,7 +9667,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>133</v>
       </c>
@@ -9699,7 +9690,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>136</v>
       </c>
@@ -9722,7 +9713,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>138</v>
       </c>
@@ -9745,7 +9736,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>140</v>
       </c>
@@ -9768,7 +9759,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>144</v>
       </c>
@@ -9791,7 +9782,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>143</v>
       </c>
@@ -9814,7 +9805,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>145</v>
       </c>
@@ -9837,7 +9828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>147</v>
       </c>
@@ -9860,7 +9851,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>149</v>
       </c>
@@ -9883,7 +9874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>151</v>
       </c>
@@ -9906,7 +9897,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>154</v>
       </c>
@@ -9929,7 +9920,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>155</v>
       </c>
@@ -9952,7 +9943,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>158</v>
       </c>
@@ -9975,7 +9966,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>160</v>
       </c>
@@ -9998,7 +9989,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>162</v>
       </c>
@@ -10021,7 +10012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>164</v>
       </c>
@@ -10044,7 +10035,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>166</v>
       </c>
@@ -10067,7 +10058,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>168</v>
       </c>
@@ -10090,7 +10081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>170</v>
       </c>
@@ -10113,7 +10104,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>172</v>
       </c>
@@ -10136,7 +10127,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>174</v>
       </c>
@@ -10159,7 +10150,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>176</v>
       </c>
@@ -10182,7 +10173,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>177</v>
       </c>
@@ -10205,7 +10196,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>178</v>
       </c>
@@ -10228,7 +10219,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>184</v>
       </c>
@@ -10251,7 +10242,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>185</v>
       </c>
@@ -10274,7 +10265,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>186</v>
       </c>
@@ -10297,7 +10288,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>187</v>
       </c>
@@ -10320,7 +10311,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>192</v>
       </c>
@@ -10343,7 +10334,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>193</v>
       </c>
@@ -10366,7 +10357,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>194</v>
       </c>
@@ -10389,7 +10380,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>195</v>
       </c>
@@ -10412,7 +10403,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>196</v>
       </c>
@@ -10435,7 +10426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>197</v>
       </c>
@@ -10458,7 +10449,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>204</v>
       </c>
@@ -10481,7 +10472,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>205</v>
       </c>
@@ -10504,7 +10495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>206</v>
       </c>
@@ -10527,7 +10518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>216</v>
       </c>
@@ -10550,7 +10541,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>217</v>
       </c>
@@ -10573,7 +10564,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>218</v>
       </c>
@@ -10596,7 +10587,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>224</v>
       </c>
@@ -10619,7 +10610,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>225</v>
       </c>
@@ -10642,7 +10633,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>226</v>
       </c>
@@ -10665,7 +10656,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>231</v>
       </c>
@@ -10688,7 +10679,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>232</v>
       </c>
@@ -10711,7 +10702,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>233</v>
       </c>
@@ -10734,7 +10725,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>240</v>
       </c>
@@ -10757,7 +10748,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>241</v>
       </c>
@@ -10780,7 +10771,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>242</v>
       </c>
@@ -10803,7 +10794,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>247</v>
       </c>
@@ -10826,7 +10817,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>248</v>
       </c>
@@ -10849,7 +10840,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>249</v>
       </c>
@@ -10872,7 +10863,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>254</v>
       </c>
@@ -10895,7 +10886,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>255</v>
       </c>
@@ -10918,7 +10909,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>256</v>
       </c>
@@ -10941,7 +10932,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>257</v>
       </c>
@@ -10964,7 +10955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>258</v>
       </c>
@@ -10987,7 +10978,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>268</v>
       </c>
@@ -11010,7 +11001,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>269</v>
       </c>
@@ -11033,7 +11024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>270</v>
       </c>
@@ -11056,7 +11047,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>271</v>
       </c>
@@ -11079,7 +11070,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>272</v>
       </c>
@@ -11102,7 +11093,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>278</v>
       </c>
@@ -11125,7 +11116,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>279</v>
       </c>
@@ -11148,7 +11139,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>280</v>
       </c>
@@ -11171,7 +11162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>283</v>
       </c>
@@ -11194,7 +11185,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>284</v>
       </c>
@@ -11217,7 +11208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>285</v>
       </c>
@@ -11240,7 +11231,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>286</v>
       </c>
@@ -11263,7 +11254,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>961</v>
       </c>
@@ -11273,7 +11264,7 @@
       <c r="D81" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -11283,7 +11274,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>962</v>
       </c>
@@ -11293,7 +11284,7 @@
       <c r="D82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -11303,7 +11294,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>53</v>
       </c>
@@ -11316,7 +11307,7 @@
       <c r="D83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F83" s="2" t="s">
@@ -11329,7 +11320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>61</v>
       </c>
@@ -11342,7 +11333,7 @@
       <c r="D84" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -11355,7 +11346,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>65</v>
       </c>
@@ -11368,7 +11359,7 @@
       <c r="D85" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F85" s="2" t="s">
@@ -11381,7 +11372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>76</v>
       </c>
@@ -11394,7 +11385,7 @@
       <c r="D86" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -11407,7 +11398,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>92</v>
       </c>
@@ -11420,7 +11411,7 @@
       <c r="D87" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -11433,7 +11424,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>99</v>
       </c>
@@ -11446,7 +11437,7 @@
       <c r="D88" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F88" s="2" t="s">
@@ -11459,7 +11450,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>975</v>
       </c>
@@ -11469,7 +11460,7 @@
       <c r="D89" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -11479,7 +11470,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>979</v>
       </c>
@@ -11489,7 +11480,7 @@
       <c r="D90" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -11499,7 +11490,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>980</v>
       </c>
@@ -11509,6 +11500,7 @@
       <c r="D91" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E91" s="23"/>
       <c r="F91" s="2" t="s">
         <v>977</v>
       </c>
@@ -11519,7 +11511,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>981</v>
       </c>
@@ -11529,6 +11521,7 @@
       <c r="D92" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E92" s="23"/>
       <c r="F92" s="2" t="s">
         <v>978</v>
       </c>
@@ -11536,7 +11529,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>920</v>
       </c>
@@ -11546,7 +11539,7 @@
       <c r="D93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -11559,7 +11552,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>923</v>
       </c>
@@ -11569,7 +11562,7 @@
       <c r="D94" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -11582,7 +11575,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>928</v>
       </c>
@@ -11592,6 +11585,7 @@
       <c r="D95" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E95" s="23"/>
       <c r="F95" s="2" t="s">
         <v>929</v>
       </c>
@@ -11602,7 +11596,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>931</v>
       </c>
@@ -11612,7 +11606,7 @@
       <c r="D96" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -11625,7 +11619,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>933</v>
       </c>
@@ -11635,7 +11629,7 @@
       <c r="D97" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -11648,7 +11642,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>936</v>
       </c>
@@ -11658,7 +11652,7 @@
       <c r="D98" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -11671,7 +11665,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>937</v>
       </c>
@@ -11681,7 +11675,7 @@
       <c r="D99" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -11694,7 +11688,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>939</v>
       </c>
@@ -11704,7 +11698,7 @@
       <c r="D100" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -11717,7 +11711,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>940</v>
       </c>
@@ -11727,7 +11721,7 @@
       <c r="D101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -11740,7 +11734,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>941</v>
       </c>
@@ -11750,7 +11744,7 @@
       <c r="D102" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -11763,7 +11757,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>942</v>
       </c>
@@ -11773,7 +11767,7 @@
       <c r="D103" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F103" s="2" t="s">
@@ -11786,7 +11780,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>943</v>
       </c>
@@ -11796,7 +11790,7 @@
       <c r="D104" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -11809,7 +11803,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>944</v>
       </c>
@@ -11819,7 +11813,7 @@
       <c r="D105" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -11832,7 +11826,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>945</v>
       </c>
@@ -11842,7 +11836,7 @@
       <c r="D106" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F106" s="2" t="s">
@@ -11855,7 +11849,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>946</v>
       </c>
@@ -11865,7 +11859,7 @@
       <c r="D107" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="23" t="s">
         <v>409</v>
       </c>
       <c r="F107" s="2" t="s">
@@ -11878,7 +11872,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>528</v>
       </c>
@@ -11891,7 +11885,7 @@
       <c r="D108" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F108" s="2" t="s">
@@ -11904,7 +11898,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>966</v>
       </c>
@@ -11914,7 +11908,7 @@
       <c r="D109" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F109" s="2" t="s">
@@ -11927,7 +11921,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>969</v>
       </c>
@@ -11937,7 +11931,7 @@
       <c r="D110" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F110" s="2" t="s">
@@ -11950,7 +11944,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>971</v>
       </c>
@@ -11960,7 +11954,7 @@
       <c r="D111" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -11973,7 +11967,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>973</v>
       </c>
@@ -11983,7 +11977,7 @@
       <c r="D112" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F112" s="2" t="s">
@@ -11996,7 +11990,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>425</v>
       </c>
@@ -12009,7 +12003,7 @@
       <c r="D113" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F113" s="2" t="s">
@@ -12022,7 +12016,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>433</v>
       </c>
@@ -12035,7 +12029,7 @@
       <c r="D114" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F114" s="2" t="s">
@@ -12048,7 +12042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>459</v>
       </c>
@@ -12061,7 +12055,7 @@
       <c r="D115" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="23" t="s">
         <v>416</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -12074,7 +12068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>460</v>
       </c>
@@ -12100,7 +12094,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>461</v>
       </c>
@@ -12126,7 +12120,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>462</v>
       </c>
@@ -12152,7 +12146,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>463</v>
       </c>
@@ -12178,7 +12172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>464</v>
       </c>
@@ -12204,7 +12198,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>493</v>
       </c>
@@ -12230,7 +12224,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>494</v>
       </c>
@@ -12256,7 +12250,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>495</v>
       </c>
@@ -12282,7 +12276,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>513</v>
       </c>
@@ -12308,7 +12302,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>514</v>
       </c>
@@ -12334,7 +12328,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>527</v>
       </c>
@@ -12373,19 +12367,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CC8981-2425-46AB-8830-2C83672BE9D5}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.6640625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="20" customWidth="1"/>
     <col min="3" max="3" width="41" style="20" customWidth="1"/>
-    <col min="4" max="4" width="41.109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>410</v>
       </c>
@@ -12399,7 +12393,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>800</v>
       </c>
@@ -12410,7 +12404,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>411</v>
       </c>
@@ -12425,7 +12419,7 @@
       </c>
       <c r="E3" s="20"/>
     </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>988</v>
       </c>
@@ -12440,7 +12434,7 @@
       </c>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>777</v>
       </c>
@@ -12454,7 +12448,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>991</v>
       </c>
@@ -12468,7 +12462,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>878</v>
       </c>
@@ -12482,7 +12476,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>993</v>
       </c>
@@ -12496,7 +12490,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>778</v>
       </c>
@@ -12510,7 +12504,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>996</v>
       </c>
@@ -12524,7 +12518,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>779</v>
       </c>
@@ -12538,7 +12532,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>780</v>
       </c>
@@ -12552,7 +12546,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>781</v>
       </c>
@@ -12566,7 +12560,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>999</v>
       </c>
@@ -12580,7 +12574,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>782</v>
       </c>
@@ -12591,7 +12585,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>783</v>
       </c>
@@ -12605,7 +12599,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>784</v>
       </c>
@@ -12619,7 +12613,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>785</v>
       </c>
@@ -12633,7 +12627,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1006</v>
       </c>
@@ -12647,7 +12641,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>788</v>
       </c>
@@ -12661,7 +12655,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>789</v>
       </c>
@@ -12675,7 +12669,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>790</v>
       </c>
@@ -12689,7 +12683,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>791</v>
       </c>
@@ -12703,7 +12697,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>794</v>
       </c>
@@ -12717,7 +12711,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>795</v>
       </c>
@@ -12731,7 +12725,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>797</v>
       </c>
@@ -12745,7 +12739,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>798</v>
       </c>
@@ -12759,7 +12753,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>801</v>
       </c>
@@ -12773,7 +12767,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>802</v>
       </c>
@@ -12787,7 +12781,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>803</v>
       </c>
@@ -12801,7 +12795,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>805</v>
       </c>
@@ -12815,7 +12809,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>806</v>
       </c>
@@ -12829,7 +12823,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>808</v>
       </c>
@@ -12843,7 +12837,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>810</v>
       </c>
@@ -12854,7 +12848,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>811</v>
       </c>
@@ -12868,7 +12862,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>813</v>
       </c>
@@ -12876,7 +12870,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>814</v>
       </c>
@@ -12884,7 +12878,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>817</v>
       </c>
@@ -12898,7 +12892,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>818</v>
       </c>
@@ -12909,7 +12903,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1010</v>
       </c>
@@ -12920,7 +12914,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>819</v>
       </c>
@@ -12931,7 +12925,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>821</v>
       </c>
@@ -12942,7 +12936,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>823</v>
       </c>
@@ -12953,7 +12947,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>824</v>
       </c>
@@ -12964,7 +12958,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>826</v>
       </c>
@@ -12975,7 +12969,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>828</v>
       </c>
@@ -12986,7 +12980,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>830</v>
       </c>
@@ -12997,7 +12991,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>831</v>
       </c>
@@ -13008,7 +13002,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>832</v>
       </c>
@@ -13019,7 +13013,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>834</v>
       </c>
@@ -13030,7 +13024,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>835</v>
       </c>
@@ -13041,7 +13035,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>837</v>
       </c>
@@ -13052,7 +13046,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>838</v>
       </c>
@@ -13063,7 +13057,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>840</v>
       </c>
@@ -13074,7 +13068,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>842</v>
       </c>
@@ -13085,7 +13079,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>843</v>
       </c>
@@ -13096,7 +13090,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>844</v>
       </c>
@@ -13107,7 +13101,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>845</v>
       </c>
@@ -13118,7 +13112,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>847</v>
       </c>
@@ -13129,7 +13123,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>849</v>
       </c>
@@ -13140,7 +13134,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>851</v>
       </c>
@@ -13151,7 +13145,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>855</v>
       </c>
@@ -13162,7 +13156,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>856</v>
       </c>
@@ -13173,7 +13167,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>876</v>
       </c>
@@ -13184,7 +13178,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>880</v>
       </c>
@@ -13195,7 +13189,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>885</v>
       </c>
@@ -13209,7 +13203,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1004</v>
       </c>
@@ -13220,7 +13214,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1016</v>
       </c>
@@ -13228,7 +13222,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1020</v>
       </c>

--- a/replication_package/2_Quality_Model_Formalization.xlsx
+++ b/replication_package/2_Quality_Model_Formalization.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwstaff-my.sharepoint.com/personal/patrick_beyersdorffer_bwstaff_de/Documents/ANUKI - Forschungsprojekt/1 - Requirement Metrics/AQM-Interaction/replication_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{729AA76D-51D2-442C-B624-3AFFAEF818C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0671D6E-3B50-472C-9E55-45A0F1DA8A7C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{729AA76D-51D2-442C-B624-3AFFAEF818C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02BDBCB-3914-43CA-A43A-574E25E7885E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{3546B736-0F13-4782-A31F-B7A23E7A593C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{3546B736-0F13-4782-A31F-B7A23E7A593C}"/>
   </bookViews>
   <sheets>
     <sheet name="QualityCharacteristics Descript" sheetId="1" r:id="rId1"/>
     <sheet name="QualityCharacteristics Results" sheetId="5" r:id="rId2"/>
     <sheet name="Measurement Goals Description" sheetId="3" r:id="rId3"/>
     <sheet name="Measurement Goals Results" sheetId="6" r:id="rId4"/>
-    <sheet name="Equivalence Examination" sheetId="7" r:id="rId5"/>
+    <sheet name="Equivalence Analysis" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9383,7 +9383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4F1B2A-76C9-4ADB-ADD3-C1FB76624DA1}">
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
@@ -12367,7 +12367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CC8981-2425-46AB-8830-2C83672BE9D5}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
